--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.5297043386772589</v>
+        <v>0.5210496154209789</v>
       </c>
       <c r="D2">
-        <v>0.5963869722219686</v>
+        <v>0.6075376934226</v>
       </c>
       <c r="E2">
         <v>0.9260942102074664</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.3609198754510656</v>
+        <v>0.360446983781771</v>
       </c>
       <c r="D3">
-        <v>0.7182047495351318</v>
+        <v>0.7219505599865363</v>
       </c>
       <c r="E3">
         <v>0.9260942102074664</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.159579012902706</v>
+        <v>-0.2461234121835621</v>
       </c>
       <c r="D4">
-        <v>0.8732319062845848</v>
+        <v>0.8078684987726339</v>
       </c>
       <c r="E4">
         <v>0.9260942102074664</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.4842657029279055</v>
+        <v>-0.4149893607479724</v>
       </c>
       <c r="D5">
-        <v>0.6282604735770634</v>
+        <v>0.6821688173759157</v>
       </c>
       <c r="E5">
         <v>0.9260942102074664</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.2528065997339973</v>
+        <v>-0.2142552586919674</v>
       </c>
       <c r="D6">
-        <v>0.8004486139504889</v>
+        <v>0.8323214302350395</v>
       </c>
       <c r="E6">
         <v>0.8918867761495937</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.6685714849585959</v>
+        <v>-0.7005275699367309</v>
       </c>
       <c r="D7">
-        <v>0.5038607709970306</v>
+        <v>0.4909409182285236</v>
       </c>
       <c r="E7">
         <v>0.8918867761495937</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.242391434868921</v>
+        <v>-0.9912173772625391</v>
       </c>
       <c r="D8">
-        <v>0.214265667177558</v>
+        <v>0.3323569975550367</v>
       </c>
       <c r="E8">
         <v>0.8918867761495937</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.5145467144040738</v>
+        <v>-0.6184229030711621</v>
       </c>
       <c r="D9">
-        <v>0.6069375307516842</v>
+        <v>0.5426469887349041</v>
       </c>
       <c r="E9">
         <v>0.9066734981431253</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.778982332130993</v>
+        <v>-0.6008909314992762</v>
       </c>
       <c r="D10">
-        <v>0.4360998968729566</v>
+        <v>0.5540537040917608</v>
       </c>
       <c r="E10">
         <v>0.9066734981431253</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.3373806773233746</v>
+        <v>-0.3120915228638611</v>
       </c>
       <c r="D11">
-        <v>0.7358721199861913</v>
+        <v>0.7579096767446589</v>
       </c>
       <c r="E11">
         <v>0.9369759140657902</v>
